--- a/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Materia_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Materia_2018-Abríl.xlsx
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B48" s="65">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
